--- a/Autoridades.xlsx
+++ b/Autoridades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\proyecto_cripto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDF626E-DCD0-4EE8-856C-8C1953A3B1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9FD2BC-AD77-40BF-94B6-71AA98A64069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
     <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAtHPZ5mEtv6oOZzdkr/yp\nzapSv2IuuBmGGh0xPFgHxKVGAnzn7ygP0SXWU8El0H9NwsLszVh8xN79gUwPe2aW\n+REBaBzHXE85ZBkrZNiyog1gnMNx2H7sOMQEBvaWsO/lRNcR+6Vj05KpxjbnC4RK\n9WrbKMPJCJyhRl/NQn9aABfwY01JOekPyBeaygOZKRInLCSI0ozRxEPlvBqIO92M\nUycUwt1TyCmThY+SW8Mfny2GzeirmY5nlGhuJ0DgrVebd0eivUgGivgxaZj60c/u\n0W80oaKpaaTY//kJiYba2J9rY2sLoDSV6z4qlbF+2pMEi+zcvSMV7oV537s6imuW\nnwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
   </si>
   <si>
-    <t>b'-----BEGIN CERTIFICATE-----\nMIIDTDCCAjSgAwIBAgIUFvSa5Wo68AOOx0DBRTKWE14BG9YwDQYJKoZIhvcNAQEL\nBQAwTjELMAkGA1UEBhMCSlAxEjAQBgNVBAgMCUVhc3QgQmx1ZTEPMA0GA1UEBwwG\nTGEgbWFyMRowGAYDVQQKDBFCYXJiYSBOZWdyYSBDb3JwLjAeFw0yMzExMjcxNjMy\nMDNaFw0yNDExMjYxNjMyMDNaMFoxCzAJBgNVBAYTAkpQMRMwEQYDVQQIDApOb3J0\naCBCbHVlMRkwFwYDVQQHDBBMYSBtYXIgZGVsIG5vcnRlMRswGQYDVQQKDBJTdWJv\ncmRpbmFkYSBjb3JwLjEwggEiMA0GCSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQC0\nc9nmYS2/qg5nN2Sv/KnNqlK/Yi64GYYaHTE8WAfEpUYCfOfvKA/RJdZTwSXQf03C\nwuzNWHzE3v2BTA97Zpb5EQFoHMdcTzlkGStk2LKiDWCcw3HYfuw4xAQG9paw7+VE\n1xH7pWPTkqnGNucLhEr1atsow8kInKFGX81Cf1oAF/BjTUk56Q/IF5rKA5kpEics\nJIjSjNHEQ+W8Gog73YxTJxTC3VPIKZOFj5Jbwx+fLYbN6KuZjmeUaG4nQOCtV5t3\nR6K9SAaK+DFpmPrRz+7RbzShoqlppNj/+QmJhtrYn2tjawugNJXrPiqVsX7akwSL\n7Ny9IxXuhXnfuzqKa5afAgMBAAGjFjAUMBIGA1UdEwEB/wQIMAYBAf8CAQAwDQYJ\nKoZIhvcNAQELBQADggEBABef9b7kL69sauGHNqMluJeXCLd0GoMMPlLuKa2TMFKm\nBm3FJFYL+EwgxbNsc/Ix0cUzmHhXW/DD4wbkr1iIlxDt1UqdQBGw2m8M7PD0JrT3\nfSGTaMjWXN9nalkg+SO1oqP1XYPeKbBTh9Xy60m11P/I3LvzvgpAf5TgfPHZCX22\nYC88/xqvgh1mGUt41yENk/n8eMtpxUF4rDpMYiXXFe9g3lc7zkusvw9suKZIXnUI\npyWF+cMu65pZLrbtL3ZR/v8wMoa5ZIu5hYPIT9WU0Twu34MkxEIwUGOcXPwh+V8H\n72VqswP9OErpO/bl4Ydh6VhJ/HjzFcKr++OQGn2Tyog=\n-----END CERTIFICATE-----\n'</t>
+    <t>b'-----BEGIN CERTIFICATE-----\nMIIDTDCCAjSgAwIBAgIUBV/e4bwqaZzy6BBzdxa7LYbEEs4wDQYJKoZIhvcNAQEL\nBQAwTjELMAkGA1UEBhMCSlAxEjAQBgNVBAgMCUVhc3QgQmx1ZTEPMA0GA1UEBwwG\nTGEgbWFyMRowGAYDVQQKDBFCYXJiYSBOZWdyYSBDb3JwLjAeFw0yMzExMjgxNDE4\nMDlaFw0yNDExMjcxNDE4MDlaMFoxCzAJBgNVBAYTAkpQMRMwEQYDVQQIDApOb3J0\naCBCbHVlMRkwFwYDVQQHDBBMYSBtYXIgZGVsIG5vcnRlMRswGQYDVQQKDBJTdWJv\ncmRpbmFkYSBjb3JwLjEwggEiMA0GCSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQC0\nc9nmYS2/qg5nN2Sv/KnNqlK/Yi64GYYaHTE8WAfEpUYCfOfvKA/RJdZTwSXQf03C\nwuzNWHzE3v2BTA97Zpb5EQFoHMdcTzlkGStk2LKiDWCcw3HYfuw4xAQG9paw7+VE\n1xH7pWPTkqnGNucLhEr1atsow8kInKFGX81Cf1oAF/BjTUk56Q/IF5rKA5kpEics\nJIjSjNHEQ+W8Gog73YxTJxTC3VPIKZOFj5Jbwx+fLYbN6KuZjmeUaG4nQOCtV5t3\nR6K9SAaK+DFpmPrRz+7RbzShoqlppNj/+QmJhtrYn2tjawugNJXrPiqVsX7akwSL\n7Ny9IxXuhXnfuzqKa5afAgMBAAGjFjAUMBIGA1UdEwEB/wQIMAYBAf8CAQAwDQYJ\nKoZIhvcNAQELBQADggEBAKwrBke9SSdokt5mRZTeqEtOJZy1knWai2dYAKu/hT6c\nMa4e0Gm4bVsdK2wBq8cI+bqgoaPj1PgJSt0+B3s6A2tLBQ0Jo91K0+jLHPk0A5kT\nLFJADmvW0YxZEqj3JYS+4+YTl2Bx7qD7mMy4NcAaL9Ni4hk6KCMsmhKiMuzvF+zc\n6YFGwMwUkTwvLGCc2RilHVDC5niNj41mKx5wW1h8L2p2iN9EtMSrEfnMxBJm08PY\nPKcqYG2SM1G0wZQc/1ukm34z+5lTRmNCWOJ4eMHFdah3DsbTg2Azz6V7BQ3/Ak4w\nvm83vQYnpPP8zVkl01VLF4jsRxUx4svcYr5PdU8RfEE=\n-----END CERTIFICATE-----\n'</t>
   </si>
   <si>
     <t>b'-----BEGIN CERTIFICATE REQUEST-----\nMIICuzCCAaMCAQAwWjELMAkGA1UEBhMCSlAxEzARBgNVBAgMCk5vcnRoIEJsdWUx\nGTAXBgNVBAcMEExhIG1hciBkZWwgbm9ydGUxGzAZBgNVBAoMElN1Ym9yZGluYWRh\nIGNvcnAuMTCCASIwDQYJKoZIhvcNAQEBBQADggEPADCCAQoCggEBALRz2eZhLb+q\nDmc3ZK/8qc2qUr9iLrgZhhodMTxYB8SlRgJ85+8oD9El1lPBJdB/TcLC7M1YfMTe\n/YFMD3tmlvkRAWgcx1xPOWQZK2TYsqINYJzDcdh+7DjEBAb2lrDv5UTXEfulY9OS\nqcY25wuESvVq2yjDyQicoUZfzUJ/WgAX8GNNSTnpD8gXmsoDmSkSJywkiNKM0cRD\n5bwaiDvdjFMnFMLdU8gpk4WPklvDH58ths3oq5mOZ5RobidA4K1Xm3dHor1IBor4\nMWmY+tHP7tFvNKGiqWmk2P/5CYmG2tifa2NrC6A0les+KpWxftqTBIvs3L0jFe6F\ned+7Ooprlp8CAwEAAaAcMBoGCSqGSIb3DQEJDjENMAswCQYDVR0RBAIwADANBgkq\nhkiG9w0BAQsFAAOCAQEAdt9B6utucAgGioR1Fss+ryUNGcfuoXjwwhVxk85fEw2g\n6anN9YFyZvgV1ByisjLwXs30g2h0bUQ8iUN3d5WLHlCS0wMH3rwePpQUVM1Mr5fv\nNBmuWo34ea3W30U8/9nPYmjrH+vL6Ec1L/y4ZeIHbgKA+gThYOG79QQtwqctC2au\nIsSsgD667V/E3gX2ZJCpS+epoeps4hkXD3c2lPDTvoh7Wnc1OevXTJDCNebbE31J\nM032ypOzW6IUXO31n5WlrmgAbseWToynk0CimMt1nqy2ylmPMkMdgXtlMYsHTy5+\nL8yGJkVKtIDhww6d89/xN43LxKSvVGbEYQzOyT5i2w==\n-----END CERTIFICATE REQUEST-----\n'</t>
@@ -73,7 +73,7 @@
     <t>b'-----BEGIN PUBLIC KEY-----\nMIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA3pxkR5wluSriuhhhm+z2\ncl5gP/TQEPuDWjOrwS0KFWdwY4txKQV9OECxosTx7sqxfCrpzesaUBxXSjgIbORx\np+mIllyl8EGMsWjHhLcfq7r+iz7rTQr/TpHAL9Hs6XTKr11vaEV4lRRFQkgje+2S\nsXylE5ujB+6bC3Kwt8ok+TzcN/s4UshUZhOMrJ4GKZItm82Xv/Aj9i9JjwP27urF\nZQ7JGN7yF9ZP2I494k/8QCDJbJYup35EokFiudAn6dgjsz/CQLz/cdQ/0XUhLrlY\n6smGkoRuMxNpZSMFVscvC+ffts+jSXOaq1FyfKuhobgCQIO/T8p7cB+6v8KERkdA\nMwIDAQAB\n-----END PUBLIC KEY-----\n'</t>
   </si>
   <si>
-    <t>b'-----BEGIN CERTIFICATE-----\nMIIDTDCCAjSgAwIBAgIUBHIm6capjS8khlcLgZj2r5jYyI0wDQYJKoZIhvcNAQEL\nBQAwTjELMAkGA1UEBhMCSlAxEjAQBgNVBAgMCUVhc3QgQmx1ZTEPMA0GA1UEBwwG\nTGEgbWFyMRowGAYDVQQKDBFCYXJiYSBOZWdyYSBDb3JwLjAeFw0yMzExMjcxNjMy\nMDNaFw0yNDExMjYxNjMyMDNaMFoxCzAJBgNVBAYTAkpQMRMwEQYDVQQIDApOb3J0\naCBCbHVlMRkwFwYDVQQHDBBMYSBtYXIgZGVsIG5vcnRlMRswGQYDVQQKDBJTdWJv\ncmRpbmFkYSBjb3JwLjEwggEiMA0GCSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQDe\nnGRHnCW5KuK6GGGb7PZyXmA/9NAQ+4NaM6vBLQoVZ3Bji3EpBX04QLGixPHuyrF8\nKunN6xpQHFdKOAhs5HGn6YiWXKXwQYyxaMeEtx+ruv6LPutNCv9OkcAv0ezpdMqv\nXW9oRXiVFEVCSCN77ZKxfKUTm6MH7psLcrC3yiT5PNw3+zhSyFRmE4ysngYpki2b\nzZe/8CP2L0mPA/bu6sVlDskY3vIX1k/Yjj3iT/xAIMlsli6nfkSiQWK50Cfp2COz\nP8JAvP9x1D/RdSEuuVjqyYaShG4zE2llIwVWxy8L59+2z6NJc5qrUXJ8q6GhuAJA\ng79PyntwH7q/woRGR0AzAgMBAAGjFjAUMBIGA1UdEwEB/wQIMAYBAf8CAQAwDQYJ\nKoZIhvcNAQELBQADggEBAMxZhkLTzIGrD6hAtt7eHfqiZV+KPEz6LZgI4CV/gtaX\nktVCCvoFM0x/eScYHPX9ictjUuJkmgi3g3oT3ue9/Y32KJLdwPfPigPmbvYeroXq\nBDqfB13osX+Rxk9fNLeTWVuUZYjK0nzZ75KquBzrZgvGZdJhuC4K31r6MslM3Mxp\nZ+gkrIjqbMvjIp2JtWTF5dtXhayHQt14eFUur8oNCmBsp+FGjSZdRhHGD0CFaECt\n/EN9HPDrGIW6GFMrKUGYzWzQmeP88fmCxk1IW1VA/k4OdRVqp84TivZMjO+4dKUH\nlmRxwQElh6dl/6MDD8/q3Ey8wwJsh92gbKcltEmlX7Y=\n-----END CERTIFICATE-----\n'</t>
+    <t>b'-----BEGIN CERTIFICATE-----\nMIIDTDCCAjSgAwIBAgIUF4eXyJw9aNhMiRvdD7E0PLnU4lMwDQYJKoZIhvcNAQEL\nBQAwTjELMAkGA1UEBhMCSlAxEjAQBgNVBAgMCUVhc3QgQmx1ZTEPMA0GA1UEBwwG\nTGEgbWFyMRowGAYDVQQKDBFCYXJiYSBOZWdyYSBDb3JwLjAeFw0yMzExMjgxNDE4\nMDlaFw0yNDExMjcxNDE4MDlaMFoxCzAJBgNVBAYTAkpQMRMwEQYDVQQIDApOb3J0\naCBCbHVlMRkwFwYDVQQHDBBMYSBtYXIgZGVsIG5vcnRlMRswGQYDVQQKDBJTdWJv\ncmRpbmFkYSBjb3JwLjEwggEiMA0GCSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQDe\nnGRHnCW5KuK6GGGb7PZyXmA/9NAQ+4NaM6vBLQoVZ3Bji3EpBX04QLGixPHuyrF8\nKunN6xpQHFdKOAhs5HGn6YiWXKXwQYyxaMeEtx+ruv6LPutNCv9OkcAv0ezpdMqv\nXW9oRXiVFEVCSCN77ZKxfKUTm6MH7psLcrC3yiT5PNw3+zhSyFRmE4ysngYpki2b\nzZe/8CP2L0mPA/bu6sVlDskY3vIX1k/Yjj3iT/xAIMlsli6nfkSiQWK50Cfp2COz\nP8JAvP9x1D/RdSEuuVjqyYaShG4zE2llIwVWxy8L59+2z6NJc5qrUXJ8q6GhuAJA\ng79PyntwH7q/woRGR0AzAgMBAAGjFjAUMBIGA1UdEwEB/wQIMAYBAf8CAQAwDQYJ\nKoZIhvcNAQELBQADggEBAIA5Vx6MT0YbwtdvczYNOavT0sOfP1UtomGsN71zaj/O\nCFKoLTBZfMdpIxQzEFphv9RJHUemQ1IYoB+FT0OcyL1KMWAQqz9Ka/L4FiwLXnWS\nsP/1+b05mbIsdfr/heR/3zXK2xnP3U5m5riy2bstsFULBnqVlIr+6xlvX5m90tTC\n3iEtrAUffCm7h6Hc+DqDfT8qFSks4IxJKXdkDm3uc/YZryZnIY3jar1Fz7frQcCA\nTfk2PjGgPTrnyY6YPvCbX+hx3c4AmyvRMxCRnE9GXFkH/jApa1c+a7LR5HW3dZqq\n3KH45nAnuWz5SKNykzzZTuEntifPI4LXOhHXvqDkF6I=\n-----END CERTIFICATE-----\n'</t>
   </si>
   <si>
     <t>b'-----BEGIN CERTIFICATE REQUEST-----\nMIICuzCCAaMCAQAwWjELMAkGA1UEBhMCSlAxEzARBgNVBAgMCk5vcnRoIEJsdWUx\nGTAXBgNVBAcMEExhIG1hciBkZWwgbm9ydGUxGzAZBgNVBAoMElN1Ym9yZGluYWRh\nIGNvcnAuMTCCASIwDQYJKoZIhvcNAQEBBQADggEPADCCAQoCggEBAN6cZEecJbkq\n4roYYZvs9nJeYD/00BD7g1ozq8EtChVncGOLcSkFfThAsaLE8e7KsXwq6c3rGlAc\nV0o4CGzkcafpiJZcpfBBjLFox4S3H6u6/os+600K/06RwC/R7Ol0yq9db2hFeJUU\nRUJII3vtkrF8pRObowfumwtysLfKJPk83Df7OFLIVGYTjKyeBimSLZvNl7/wI/Yv\nSY8D9u7qxWUOyRje8hfWT9iOPeJP/EAgyWyWLqd+RKJBYrnQJ+nYI7M/wkC8/3HU\nP9F1IS65WOrJhpKEbjMTaWUjBVbHLwvn37bPo0lzmqtRcnyroaG4AkCDv0/Ke3Af\nur/ChEZHQDMCAwEAAaAcMBoGCSqGSIb3DQEJDjENMAswCQYDVR0RBAIwADANBgkq\nhkiG9w0BAQsFAAOCAQEAwwjQjXA2vBy5zCOYAODty8CGuKq0xSRwvjqe3W+Y2FvS\nZ9xIMy3UpwTuaypUXWq6AAKsPramDicjZueJQ3OWfb/seHH0cqaz+2q6ZpEH+t7s\nv5P0/xz8AHI4NAui/rySDbRG//qfIFwasRxgogsrb8dyLS+PLd09X7mYFMh5tynT\nT2yhASH7xui5mI+99RmlPQmSblHbC2gRXeqOr7dOMISWNHF5Y8piGlYXHAvZZDfF\nojV5NcD+FtHbocXS01qtEA1JgBBazwOpVYVuxxTICStSPfmch+IPr4XkAijqIGW7\nnJo/WGi7OSH5U+HEw+mQs3CZtptbjWCR2WHKhaBEuQ==\n-----END CERTIFICATE REQUEST-----\n'</t>
@@ -442,13 +442,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="110.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">

--- a/Autoridades.xlsx
+++ b/Autoridades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\proyecto_cripto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9FD2BC-AD77-40BF-94B6-71AA98A64069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1887B9-0288-4644-A3FB-E02E3B215246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="563" yWindow="701" windowWidth="19534" windowHeight="9304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
